--- a/documents/機能一覧_world Map_改訂5.xlsx
+++ b/documents/機能一覧_world Map_改訂5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05E08B-9D79-4FFE-B81F-30E8CDA02B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A76693C-F924-430F-9EC7-7ADD72811585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="60" windowWidth="11505" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
@@ -1581,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/機能一覧_world Map_改訂5.xlsx
+++ b/documents/機能一覧_world Map_改訂5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A76693C-F924-430F-9EC7-7ADD72811585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A25A3B-EB12-4E05-975F-48E46349958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -427,55 +427,6 @@
     <t>舟見玲奈</t>
     <rPh sb="0" eb="4">
       <t>フナミレナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入り登録したノート画像、タグ、タイトルの閲覧、ノートのダウンロード、お気に入り登録の解除が可能。また、「こちらもおすすめ」欄にて、お気に入りの少ないノート等をランダム掲載する。お気に入りの少ないノートをおすすめ欄に表示させる理由は、ユーザーに色んなノートを見てほしいため。</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>カイジョ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ケイサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -868,46 +819,136 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ノート画像、タグ、タイトルを閲覧することができる。また、ノートの編集、削除も可能。
+    <t>ShareNote</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノート画像、タグ、タイトル、年度、ノートをアップロードしたユーザーのニックネームの閲覧、ノートのダウンロード、お気に入り登録のその解除が可能。また、「こちらもおすすめ」欄にて、詳細を表示しているノートとタグが完全一致しており、お気に入りの少ないかつその年度の古いノートをランダム掲載する。お気に入りの少ないノートをおすすめ欄に表示させる理由は、ユーザーに色んなノートを見てほしいため。</t>
+    <rPh sb="14" eb="16">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="104" eb="108">
+      <t>カンゼンイッチ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ケイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り登録したノート画像の閲覧ができる。最新でお気に入りした順で表示。
+このお気に入り一覧では、お気に入り登録したノートをダウンロード、お気に入り一覧から「詳細」ボタンを押してノート詳細画面へ遷移することが、それぞれ可能。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノート画像、タグ、タイトルを閲覧することができる。また、ノートの編集、削除も可能。
 編集項目は、ファイル・タイトル・タグ・公開非公開。
 編集を完了ボタンが押され、未入力項目があるとき、エラーメッセージ表示。
 削除ボタンが押されたら、確認ダイアログ表示。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>編集後は本画面に遷移(?)し、メッセージ表示。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>削除後はノート一覧画面に遷移し、メッセージ表示。</t>
-    </r>
+編集後は編集ページにメッセージ表示。
+削除後はノート一覧画面に遷移し、メッセージ表示（削除が失敗したら編集ページにメッセージを表示）。</t>
     <rPh sb="14" eb="16">
       <t>エツラン</t>
     </rPh>
@@ -959,115 +1000,35 @@
     <rPh sb="129" eb="130">
       <t>ゴ</t>
     </rPh>
-    <rPh sb="131" eb="134">
-      <t>ホンガメン</t>
-    </rPh>
-    <rPh sb="135" eb="137">
+    <rPh sb="131" eb="133">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="146" eb="149">
+      <t>サクジョゴ</t>
+    </rPh>
+    <rPh sb="153" eb="157">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="158" eb="160">
       <t>センイ</t>
     </rPh>
-    <rPh sb="147" eb="149">
+    <rPh sb="167" eb="169">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="151" eb="154">
-      <t>サクジョゴ</t>
-    </rPh>
-    <rPh sb="158" eb="162">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
+    <rPh sb="170" eb="172">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>お気に入り登録したノート画像の閲覧ができる。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最新でお気に入りした順で表示。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-このお気に入り一覧では、お気に入り登録したノートをダウンロード、お気に入り一覧から「詳細」ボタンを押してノート詳細画面へ遷移することが、それぞれ可能。</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1076,7 +1037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,14 +1071,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1582,7 +1535,7 @@
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1599,7 +1552,9 @@
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1685,7 +1640,7 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>17</v>
@@ -1707,7 +1662,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>17</v>
@@ -1729,7 +1684,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>17</v>
@@ -1773,7 +1728,7 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>17</v>
@@ -1795,7 +1750,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>17</v>
@@ -1817,13 +1772,13 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
         <v>8</v>
       </c>
@@ -1839,7 +1794,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>17</v>
@@ -1860,14 +1815,14 @@
         <v>25</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="17" t="s">
         <v>50</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B17" s="15">
         <v>10</v>
       </c>
@@ -1883,7 +1838,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>17</v>
@@ -1923,7 +1878,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
@@ -1971,7 +1926,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>17</v>
